--- a/ARCHIVE/deployment/Omaha_Cal_Info_GS02HYPM_00003.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_GS02HYPM_00003.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarzio\Desktop\cal sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9696"/>
+    <workbookView xWindow="-180" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,11 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="93">
   <si>
     <t>Ref Des</t>
   </si>
@@ -269,9 +272,6 @@
   </si>
   <si>
     <t>13104-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R.Travis - not sure what all this in column K - P is and if I'm supposed to update anything here?  </t>
   </si>
   <si>
     <t>CGINS-FLORDL-03282</t>
@@ -1425,9 +1425,6 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,6 +1468,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1821,9 +1821,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1856,9 +1856,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2065,29 +2065,29 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="31" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" style="31" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="31"/>
+    <col min="13" max="13" width="17.1640625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="21" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="21" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>47</v>
       </c>
@@ -2125,9 +2125,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="27" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="27" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>32</v>
@@ -2138,12 +2138,22 @@
       <c r="D2" s="22">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="23">
+        <v>42704</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0.81180555555555556</v>
+      </c>
       <c r="G2" s="23"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="52">
+        <v>-54.469288333333331</v>
+      </c>
+      <c r="I2" s="52">
+        <v>-89.319091666666665</v>
+      </c>
+      <c r="J2" s="22">
+        <v>4583</v>
+      </c>
       <c r="K2" s="14" t="s">
         <v>75</v>
       </c>
@@ -2151,48 +2161,48 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="30" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" s="30" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" s="30" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" s="30" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="30" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:14" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:14" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:14" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:14" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="12" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
       <c r="G12" s="28"/>
     </row>
-    <row r="13" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E15" s="28"/>
       <c r="F15" s="29"/>
       <c r="G15" s="28"/>
     </row>
-    <row r="16" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E16" s="28"/>
       <c r="F16" s="29"/>
       <c r="G16" s="28"/>
@@ -2200,37 +2210,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2259,21 +2264,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -2282,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="12">
         <v>3282</v>
@@ -2293,31 +2293,17 @@
       <c r="H3" s="12">
         <v>46</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50">
-        <f t="shared" ref="K3:K45" si="0">MATCH(A3,L:L,0)</f>
-        <v>4</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50">
-        <f t="shared" ref="P3:P16" si="1">MATCH(L3,A:A,0)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>74</v>
@@ -2326,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="12">
         <v>3282</v>
@@ -2337,27 +2323,13 @@
       <c r="H4" s="12">
         <v>1.7409999999999999E-6</v>
       </c>
-      <c r="K4" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L4" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>74</v>
@@ -2366,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="12">
         <v>3282</v>
@@ -2377,27 +2349,13 @@
       <c r="H5" s="12">
         <v>51</v>
       </c>
-      <c r="K5" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>74</v>
@@ -2406,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="12">
         <v>3282</v>
@@ -2417,27 +2375,13 @@
       <c r="H6" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K6" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>74</v>
@@ -2446,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="12">
         <v>3282</v>
@@ -2460,27 +2404,13 @@
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>74</v>
@@ -2489,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="12">
         <v>3282</v>
@@ -2503,27 +2433,13 @@
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>74</v>
@@ -2532,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="12">
         <v>3282</v>
@@ -2546,27 +2462,13 @@
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>74</v>
@@ -2575,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="12">
         <v>3282</v>
@@ -2589,46 +2491,18 @@
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="K11" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>74</v>
@@ -2637,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="12">
         <v>1479</v>
@@ -2645,31 +2519,17 @@
       <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="50" t="s">
+      <c r="H12" s="46"/>
+      <c r="I12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>74</v>
@@ -2678,7 +2538,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="12">
         <v>1479</v>
@@ -2686,47 +2546,19 @@
       <c r="G13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="K13" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L13" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="K14" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>74</v>
@@ -2735,7 +2567,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="9">
         <v>130</v>
@@ -2743,28 +2575,14 @@
       <c r="G15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="K15" s="50">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L15" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>74</v>
@@ -2773,7 +2591,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="9">
         <v>130</v>
@@ -2781,37 +2599,19 @@
       <c r="G16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="K16" s="50">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="K17" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>74</v>
@@ -2820,7 +2620,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="9">
         <v>1118</v>
@@ -2828,18 +2628,14 @@
       <c r="G18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="K18" s="50">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>74</v>
@@ -2848,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="9">
         <v>1118</v>
@@ -2856,27 +2652,19 @@
       <c r="G19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="K19" s="50">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="K20" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>74</v>
@@ -2885,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9">
         <v>3278</v>
@@ -2896,20 +2684,16 @@
       <c r="H21" s="9">
         <v>46</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>74</v>
@@ -2918,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="9">
         <v>3278</v>
@@ -2929,17 +2713,13 @@
       <c r="H22" s="9">
         <v>1.7570000000000001E-6</v>
       </c>
-      <c r="K22" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>74</v>
@@ -2948,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="9">
         <v>3278</v>
@@ -2959,17 +2739,13 @@
       <c r="H23" s="9">
         <v>52</v>
       </c>
-      <c r="K23" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>74</v>
@@ -2978,7 +2754,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="9">
         <v>3278</v>
@@ -2989,17 +2765,13 @@
       <c r="H24" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K24" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>74</v>
@@ -3008,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="9">
         <v>3278</v>
@@ -3022,17 +2794,13 @@
       <c r="I25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>74</v>
@@ -3041,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="9">
         <v>3278</v>
@@ -3055,17 +2823,13 @@
       <c r="I26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>74</v>
@@ -3074,7 +2838,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="9">
         <v>3278</v>
@@ -3088,17 +2852,13 @@
       <c r="I27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K27" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
@@ -3107,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="9">
         <v>3278</v>
@@ -3121,26 +2881,18 @@
       <c r="I28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="50">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="K29" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>74</v>
@@ -3149,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="9">
         <v>1475</v>
@@ -3157,18 +2909,14 @@
       <c r="G30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="K30" s="50">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>74</v>
@@ -3177,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="9">
         <v>1475</v>
@@ -3185,27 +2933,19 @@
       <c r="G31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="K31" s="50">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="K32" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>74</v>
@@ -3214,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="9">
         <v>129</v>
@@ -3222,18 +2962,14 @@
       <c r="G33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="47"/>
-      <c r="K33" s="50">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>74</v>
@@ -3242,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="9">
         <v>129</v>
@@ -3250,27 +2986,19 @@
       <c r="G34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="K34" s="50">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="K35" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>74</v>
@@ -3279,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="9">
         <v>1117</v>
@@ -3287,18 +3015,14 @@
       <c r="G36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="47"/>
-      <c r="K36" s="50">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>74</v>
@@ -3307,7 +3031,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="9">
         <v>1117</v>
@@ -3315,27 +3039,19 @@
       <c r="G37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="K37" s="50">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="K38" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>74</v>
@@ -3344,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="9">
         <v>55105</v>
@@ -3352,26 +3068,18 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="5"/>
-      <c r="K39" s="50">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="K40" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>74</v>
@@ -3380,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" s="9">
         <v>55106</v>
@@ -3388,26 +3096,18 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="5"/>
-      <c r="K41" s="50">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="K42" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>74</v>
@@ -3416,34 +3116,28 @@
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="38">
         <v>39</v>
       </c>
-      <c r="I43" s="40" t="s">
+      <c r="I43" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="49"/>
-      <c r="K43" s="50">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J43" s="48"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>74</v>
@@ -3452,30 +3146,24 @@
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="48"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="50">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H44" s="47"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>74</v>
@@ -3484,30 +3172,24 @@
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="48"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="50">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L45" s="37"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H45" s="47"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>74</v>
@@ -3516,26 +3198,26 @@
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="38">
         <v>1450</v>
       </c>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>74</v>
@@ -3544,25 +3226,25 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="43">
         <v>3.9999000000000002E-7</v>
       </c>
-      <c r="I47" s="42"/>
-    </row>
-    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I47" s="41"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>74</v>
@@ -3571,25 +3253,25 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="42" t="s">
+      <c r="G48" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="44">
         <v>-1.800332E-4</v>
       </c>
-      <c r="I48" s="43"/>
-    </row>
-    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I48" s="42"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>74</v>
@@ -3598,25 +3280,25 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="44">
         <v>3.211E-4</v>
       </c>
-      <c r="I49" s="43"/>
-    </row>
-    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I49" s="42"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>74</v>
@@ -3625,25 +3307,25 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H50" s="44">
         <v>-5.4598359999999999E-6</v>
       </c>
-      <c r="I50" s="43"/>
-    </row>
-    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I50" s="42"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>74</v>
@@ -3652,25 +3334,25 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="45">
+      <c r="H51" s="44">
         <v>2.2873480000000001E-7</v>
       </c>
-      <c r="I51" s="43"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="42"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>74</v>
@@ -3679,25 +3361,25 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F52" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H52" s="44">
+      <c r="H52" s="43">
         <v>-68.143219999999999</v>
       </c>
-      <c r="I52" s="43"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="42"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>74</v>
@@ -3706,25 +3388,25 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="H53" s="44">
+      <c r="H53" s="43">
         <v>5.1532759999999997E-2</v>
       </c>
-      <c r="I53" s="43"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="42"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>74</v>
@@ -3733,25 +3415,25 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="42" t="s">
+      <c r="G54" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H54" s="44">
+      <c r="H54" s="43">
         <v>-5.1004309999999995E-7</v>
       </c>
-      <c r="I54" s="43"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="42"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>74</v>
@@ -3760,25 +3442,25 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G55" s="42" t="s">
+      <c r="G55" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="44">
+      <c r="H55" s="43">
         <v>524771.19999999995</v>
       </c>
-      <c r="I55" s="43"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>74</v>
@@ -3787,25 +3469,25 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="44">
+      <c r="H56" s="43">
         <v>-0.49155529999999997</v>
       </c>
-      <c r="I56" s="43"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="42"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>74</v>
@@ -3814,25 +3496,25 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G57" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H57" s="44">
+      <c r="H57" s="43">
         <v>3.7778930000000002E-2</v>
       </c>
-      <c r="I57" s="43"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="42"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>74</v>
@@ -3841,25 +3523,25 @@
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="44">
+      <c r="H58" s="43">
         <v>25.354379999999999</v>
       </c>
-      <c r="I58" s="43"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="42"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>74</v>
@@ -3868,25 +3550,25 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H59" s="44">
+      <c r="H59" s="43">
         <v>8.7500000000000002E-4</v>
       </c>
-      <c r="I59" s="43"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="42"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>74</v>
@@ -3895,25 +3577,25 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G60" s="42" t="s">
+      <c r="G60" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H60" s="44">
+      <c r="H60" s="43">
         <v>0</v>
       </c>
-      <c r="I60" s="43"/>
-    </row>
-    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I60" s="42"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>74</v>
@@ -3922,25 +3604,25 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="42" t="s">
+      <c r="G61" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="45">
+      <c r="H61" s="44">
         <v>3.130579E-2</v>
       </c>
-      <c r="I61" s="43"/>
-    </row>
-    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I61" s="42"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>74</v>
@@ -3949,25 +3631,25 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="G62" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H62" s="45">
+      <c r="H62" s="44">
         <v>4.481451E-3</v>
       </c>
-      <c r="I62" s="43"/>
-    </row>
-    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I62" s="42"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>74</v>
@@ -3976,25 +3658,25 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F63" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G63" s="42" t="s">
+      <c r="G63" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="44">
         <v>-1.416329E-11</v>
       </c>
-      <c r="I63" s="43"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="42"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>74</v>
@@ -4003,25 +3685,25 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="42" t="s">
+      <c r="G64" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H64" s="44">
+      <c r="H64" s="43">
         <v>-0.98247430000000002</v>
       </c>
-      <c r="I64" s="43"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>74</v>
@@ -4030,25 +3712,25 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="42" t="s">
+      <c r="G65" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="43">
         <v>0.15742220000000001</v>
       </c>
-      <c r="I65" s="43"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I65" s="42"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>74</v>
@@ -4057,25 +3739,25 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="42" t="s">
+      <c r="G66" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="43">
         <v>-1.872032E-4</v>
       </c>
-      <c r="I66" s="43"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I66" s="42"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>74</v>
@@ -4084,25 +3766,25 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="42" t="s">
+      <c r="G67" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H67" s="44">
+      <c r="H67" s="43">
         <v>3.9039509999999999E-5</v>
       </c>
-      <c r="I67" s="43"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I67" s="42"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>74</v>
@@ -4111,25 +3793,25 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F68" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="42" t="s">
+      <c r="G68" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="H68" s="44">
+      <c r="H68" s="43">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="I68" s="43"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I68" s="42"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>74</v>
@@ -4138,34 +3820,30 @@
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="43">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="I69" s="43"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I69" s="42"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-      <c r="K70" s="50" t="e">
-        <f>MATCH(A70,L:L,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>74</v>
@@ -4174,23 +3852,19 @@
         <v>3</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="46">
+      <c r="F71" s="45">
         <v>14871</v>
       </c>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="4"/>
-      <c r="K71" s="50">
-        <f>MATCH(A71,L:L,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>74</v>
@@ -4199,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>77</v>
@@ -4207,17 +3881,13 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="4"/>
-      <c r="K72" s="50">
-        <f>MATCH(A72,L:L,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>74</v>
@@ -4226,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>78</v>
@@ -4234,26 +3904,18 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="4"/>
-      <c r="K73" s="50">
-        <f>MATCH(A73,L:L,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-      <c r="K74" s="50" t="e">
-        <f>MATCH(A74,L:L,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -4261,10 +3923,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>